--- a/Data/DDM_data.xlsx
+++ b/Data/DDM_data.xlsx
@@ -1,41 +1,201 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\FloodRiskHeijplaat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F441A92-77F5-465C-B93F-989422AB2093}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE1AA2B-4BB7-4995-82AF-54847319BC57}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="curves_structure" sheetId="2" r:id="rId1"/>
     <sheet name="curves_content" sheetId="1" r:id="rId2"/>
     <sheet name="maxdam_structure" sheetId="3" r:id="rId3"/>
     <sheet name="maxdam_content" sheetId="4" r:id="rId4"/>
+    <sheet name="landuse_list" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="55">
   <si>
     <t>landuse</t>
   </si>
   <si>
     <t>maxdam</t>
   </si>
+  <si>
+    <t>Residential area</t>
+  </si>
+  <si>
+    <t>House</t>
+  </si>
+  <si>
+    <t>Garden shed / unknown</t>
+  </si>
+  <si>
+    <t>Rural residential area</t>
+  </si>
+  <si>
+    <t>Public and social services area</t>
+  </si>
+  <si>
+    <t>Community house</t>
+  </si>
+  <si>
+    <t>Jail</t>
+  </si>
+  <si>
+    <t>Healthcare</t>
+  </si>
+  <si>
+    <t>Education</t>
+  </si>
+  <si>
+    <t>Sport</t>
+  </si>
+  <si>
+    <t>Miscellaneous</t>
+  </si>
+  <si>
+    <t>Commercial area</t>
+  </si>
+  <si>
+    <t>Office</t>
+  </si>
+  <si>
+    <t>Shop</t>
+  </si>
+  <si>
+    <t>Accommodation</t>
+  </si>
+  <si>
+    <t>Industrial area</t>
+  </si>
+  <si>
+    <t>Industrial building</t>
+  </si>
+  <si>
+    <t>Shed (industrial)</t>
+  </si>
+  <si>
+    <t>Horticulture</t>
+  </si>
+  <si>
+    <t>Greenhouse</t>
+  </si>
+  <si>
+    <t>Arable land</t>
+  </si>
+  <si>
+    <t>Shed/stable</t>
+  </si>
+  <si>
+    <t>Livestock farming</t>
+  </si>
+  <si>
+    <t>Orchard</t>
+  </si>
+  <si>
+    <t>Fruit trees</t>
+  </si>
+  <si>
+    <t>Parks</t>
+  </si>
+  <si>
+    <t>Sport fields</t>
+  </si>
+  <si>
+    <t>Garden complex</t>
+  </si>
+  <si>
+    <t>Recreation (day)</t>
+  </si>
+  <si>
+    <t>Holiday accommodation</t>
+  </si>
+  <si>
+    <t>Forest</t>
+  </si>
+  <si>
+    <t>Dry nature</t>
+  </si>
+  <si>
+    <t>Wet nature</t>
+  </si>
+  <si>
+    <t>Railroads</t>
+  </si>
+  <si>
+    <t>Highways</t>
+  </si>
+  <si>
+    <t>Major roads</t>
+  </si>
+  <si>
+    <t>Roads</t>
+  </si>
+  <si>
+    <t>Unpaved roads</t>
+  </si>
+  <si>
+    <t>Parking lot</t>
+  </si>
+  <si>
+    <t>Airport</t>
+  </si>
+  <si>
+    <t>Waste site</t>
+  </si>
+  <si>
+    <t>Wreck storage</t>
+  </si>
+  <si>
+    <t>Cemetery</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>Building lot</t>
+  </si>
+  <si>
+    <t>Miscellaneous paved</t>
+  </si>
+  <si>
+    <t>Freshwater reservoir</t>
+  </si>
+  <si>
+    <t>Dredging storage</t>
+  </si>
+  <si>
+    <t>Inland water</t>
+  </si>
+  <si>
+    <t>Major river</t>
+  </si>
+  <si>
+    <t>Sea</t>
+  </si>
+  <si>
+    <t>lu_class</t>
+  </si>
+  <si>
+    <t>lu_name</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -166,6 +326,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -512,8 +679,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -12029,8 +12205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="A1:B1"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -12468,7 +12644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -12613,4 +12789,443 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D38AE02-FEBA-47F3-BCF9-F5325CFB227F}">
+  <dimension ref="A1:B53"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>110</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>111</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>112</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>120</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>130</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>131</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>132</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>133</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>134</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>135</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>136</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>140</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>141</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>142</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>143</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>144</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>150</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>151</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>152</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>210</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>211</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>220</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>221</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>230</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>240</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>250</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>310</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>320</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>330</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>340</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>350</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>360</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>370</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>380</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>410</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>420</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>430</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>440</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>450</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>460</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>470</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>510</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>520</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>530</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>540</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>550</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>560</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>610</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>620</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>630</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>640</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>650</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>